--- a/Bảng phân công.xlsx
+++ b/Bảng phân công.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justt\OneDrive\Máy tính\CĐCNPM\DACNPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34372F17-9172-4449-8507-3AC8244734BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{34372F17-9172-4449-8507-3AC8244734BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1C051924-3E68-4888-82DB-4E9BC2FF79EB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>Deadline</t>
   </si>
@@ -377,6 +377,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>30/5/2020</t>
+  </si>
+  <si>
+    <t>Code HTML + CSS</t>
   </si>
 </sst>
 </file>
@@ -1027,6 +1033,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1048,7 +1055,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1537,8 +1543,8 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1570,8 +1576,8 @@
       <c r="F4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E5" s="31" t="s">
@@ -1580,8 +1586,8 @@
       <c r="F5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E6" s="3"/>
@@ -1617,7 +1623,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -1639,7 +1645,7 @@
       <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" s="17" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="28" t="s">
         <v>8</v>
       </c>
@@ -1659,7 +1665,7 @@
       <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" s="17" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1683,7 +1689,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="28" t="s">
         <v>11</v>
       </c>
@@ -1703,7 +1709,7 @@
       <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="28" t="s">
         <v>12</v>
       </c>
@@ -1723,7 +1729,7 @@
       <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="29" t="s">
         <v>13</v>
       </c>
@@ -1743,89 +1749,117 @@
       <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" s="17" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="18"/>
+      <c r="G15" s="18">
+        <v>43957</v>
+      </c>
       <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" s="17" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="18">
+        <v>43957</v>
+      </c>
       <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" s="17" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="F17" s="22"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="18">
+        <v>43957</v>
+      </c>
+      <c r="H17" s="23">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18" spans="1:8" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="18"/>
+      <c r="G18" s="18">
+        <v>43957</v>
+      </c>
       <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="18">
+        <v>43957</v>
+      </c>
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="18"/>
+      <c r="G20" s="18">
+        <v>43957</v>
+      </c>
       <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
@@ -2089,7 +2123,7 @@
       <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="35" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="25"/>
